--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2308.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2308.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.614940192062755</v>
+        <v>0.8378782272338867</v>
       </c>
       <c r="B1">
-        <v>2.120212228351081</v>
+        <v>1.254250645637512</v>
       </c>
       <c r="C1">
-        <v>1.874380614568845</v>
+        <v>2.292247772216797</v>
       </c>
       <c r="D1">
-        <v>2.049454744070944</v>
+        <v>2.413295745849609</v>
       </c>
       <c r="E1">
-        <v>2.530906035328115</v>
+        <v>1.966107845306396</v>
       </c>
     </row>
   </sheetData>
